--- a/server/app/templates/report_b.xlsx
+++ b/server/app/templates/report_b.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Staxi\server\app\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="9720" windowHeight="7320"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>За месяц</t>
   </si>
@@ -32,13 +37,16 @@
   </si>
   <si>
     <t>Вид информации</t>
+  </si>
+  <si>
+    <t>Отчет о деятельности службы "Социальное такси"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -51,15 +59,22 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -107,20 +122,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -135,13 +153,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -179,9 +205,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,9 +239,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -247,9 +274,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -422,64 +450,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="4"/>
+    <col min="5" max="5" width="11" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="4"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="27" customHeight="1">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+    <row r="5" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="3" t="s">
         <v>1</v>
       </c>

--- a/server/app/templates/report_b.xlsx
+++ b/server/app/templates/report_b.xlsx
@@ -460,7 +460,7 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" style="5" customWidth="1"/>
     <col min="3" max="3" width="11" style="4" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="4"/>
     <col min="5" max="5" width="11" style="4" customWidth="1"/>
@@ -537,7 +537,7 @@
     <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.78740157480314965" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.78740157480314965" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;8&amp;D &amp;T &amp;F</oddHeader>

--- a/server/app/templates/report_b.xlsx
+++ b/server/app/templates/report_b.xlsx
@@ -459,12 +459,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="57.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="4"/>
-    <col min="5" max="5" width="11" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
+    <col min="1" max="1" width="4.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -494,7 +494,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -510,7 +510,7 @@
       </c>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="3" t="s">
